--- a/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/06. Excel - PivotTables in depth/Material/Ex_Files_Excel_Pivot_Tables_Depth/Exercise Files/Chapter03/FilterField_03_08.xlsx
+++ b/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/06. Excel - PivotTables in depth/Material/Ex_Files_Excel_Pivot_Tables_Depth/Exercise Files/Chapter03/FilterField_03_08.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curtis\Documents\LinkedIn Learning\Excel for O365 PivotTables\Chapter03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier García\Downloads\Excel\Learning path 01\06\Modulo 02\Ex_Files_Excel_Pivot_Tables_Depth\Ex_Files_Excel_Pivot_Tables_Depth\Exercise Files\Chapter03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EBB67D-9176-48D0-9ABC-49F2B884D259}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58478B4E-B092-417D-9628-9B6E26ABE727}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350" xr2:uid="{2E5CF44E-A048-4B93-98D9-BFC521C6FDBF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2E5CF44E-A048-4B93-98D9-BFC521C6FDBF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="OrderDetails" sheetId="1" r:id="rId2"/>
+    <sheet name="Batteries" sheetId="8" r:id="rId1"/>
+    <sheet name="Grid Tie Inverters" sheetId="7" r:id="rId2"/>
+    <sheet name="Landscape lighting" sheetId="6" r:id="rId3"/>
+    <sheet name="Lightbulbs" sheetId="5" r:id="rId4"/>
+    <sheet name="Solar panels" sheetId="4" r:id="rId5"/>
+    <sheet name="Wind harvester" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId7"/>
+    <sheet name="OrderDetails" sheetId="1" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OrderDetails!$G$1:$G$275</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="1">[1]Products!$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">OrderDetails!$G$1:$G$275</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="7">[1]Products!$B$1</definedName>
   </definedNames>
   <calcPr calcId="179021" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="259">
   <si>
     <t>OrderNum</t>
   </si>
@@ -785,12 +791,6 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
     <t>Sum of Total Price</t>
   </si>
   <si>
@@ -812,10 +812,19 @@
     <t>Qtr4</t>
   </si>
   <si>
-    <t>2017 Total</t>
-  </si>
-  <si>
-    <t>2018 Total</t>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Total 2017</t>
+  </si>
+  <si>
+    <t>Total 2018</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <t>(Todas)</t>
   </si>
 </sst>
 </file>
@@ -882,10 +891,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -4856,8 +4865,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6223BFF3-72F3-498B-873F-ADFE229340AC}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6223BFF3-72F3-498B-873F-ADFE229340AC}" name="TablaDinámica6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -4881,7 +4890,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField subtotalTop="0" showAll="0">
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="7">
         <item x="2"/>
         <item x="1"/>
@@ -5277,6 +5286,2646 @@
   <colItems count="1">
     <i/>
   </colItems>
+  <pageFields count="1">
+    <pageField fld="4" item="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Total Price" fld="9" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6223BFF3-72F3-498B-873F-ADFE229340AC}" name="TablaDinámica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="12">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" numFmtId="14" subtotalTop="0" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0">
+      <items count="53">
+        <item x="38"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="30"/>
+        <item x="26"/>
+        <item x="51"/>
+        <item x="41"/>
+        <item x="18"/>
+        <item x="44"/>
+        <item x="34"/>
+        <item x="49"/>
+        <item x="43"/>
+        <item x="36"/>
+        <item x="10"/>
+        <item x="39"/>
+        <item x="35"/>
+        <item x="29"/>
+        <item x="0"/>
+        <item x="45"/>
+        <item x="40"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="31"/>
+        <item x="37"/>
+        <item x="48"/>
+        <item x="46"/>
+        <item x="33"/>
+        <item x="8"/>
+        <item x="12"/>
+        <item x="47"/>
+        <item x="50"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="9"/>
+        <item x="22"/>
+        <item x="25"/>
+        <item x="7"/>
+        <item x="19"/>
+        <item x="14"/>
+        <item x="5"/>
+        <item x="21"/>
+        <item x="23"/>
+        <item x="28"/>
+        <item x="24"/>
+        <item x="32"/>
+        <item x="4"/>
+        <item x="42"/>
+        <item x="20"/>
+        <item x="27"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0">
+      <items count="251">
+        <item x="8"/>
+        <item x="166"/>
+        <item x="178"/>
+        <item x="30"/>
+        <item x="169"/>
+        <item x="14"/>
+        <item x="198"/>
+        <item x="87"/>
+        <item x="74"/>
+        <item x="207"/>
+        <item x="11"/>
+        <item x="49"/>
+        <item x="31"/>
+        <item x="57"/>
+        <item x="42"/>
+        <item x="80"/>
+        <item x="216"/>
+        <item x="110"/>
+        <item x="247"/>
+        <item x="234"/>
+        <item x="236"/>
+        <item x="150"/>
+        <item x="23"/>
+        <item x="92"/>
+        <item x="158"/>
+        <item x="59"/>
+        <item x="62"/>
+        <item x="119"/>
+        <item x="140"/>
+        <item x="168"/>
+        <item x="151"/>
+        <item x="36"/>
+        <item x="246"/>
+        <item x="85"/>
+        <item x="76"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="27"/>
+        <item x="103"/>
+        <item x="224"/>
+        <item x="211"/>
+        <item x="66"/>
+        <item x="129"/>
+        <item x="189"/>
+        <item x="114"/>
+        <item x="130"/>
+        <item x="196"/>
+        <item x="164"/>
+        <item x="134"/>
+        <item x="68"/>
+        <item x="89"/>
+        <item x="16"/>
+        <item x="148"/>
+        <item x="220"/>
+        <item x="233"/>
+        <item x="193"/>
+        <item x="45"/>
+        <item x="52"/>
+        <item x="212"/>
+        <item x="222"/>
+        <item x="208"/>
+        <item x="163"/>
+        <item x="157"/>
+        <item x="127"/>
+        <item x="24"/>
+        <item x="19"/>
+        <item x="171"/>
+        <item x="94"/>
+        <item x="132"/>
+        <item x="9"/>
+        <item x="124"/>
+        <item x="35"/>
+        <item x="153"/>
+        <item x="238"/>
+        <item x="225"/>
+        <item x="118"/>
+        <item x="34"/>
+        <item x="105"/>
+        <item x="241"/>
+        <item x="209"/>
+        <item x="25"/>
+        <item x="43"/>
+        <item x="125"/>
+        <item x="137"/>
+        <item x="86"/>
+        <item x="240"/>
+        <item x="191"/>
+        <item x="51"/>
+        <item x="237"/>
+        <item x="101"/>
+        <item x="139"/>
+        <item x="115"/>
+        <item x="88"/>
+        <item x="40"/>
+        <item x="187"/>
+        <item x="136"/>
+        <item x="58"/>
+        <item x="65"/>
+        <item x="38"/>
+        <item x="12"/>
+        <item x="135"/>
+        <item x="210"/>
+        <item x="72"/>
+        <item x="146"/>
+        <item x="143"/>
+        <item x="159"/>
+        <item x="232"/>
+        <item x="173"/>
+        <item x="97"/>
+        <item x="104"/>
+        <item x="79"/>
+        <item x="167"/>
+        <item x="235"/>
+        <item x="170"/>
+        <item x="22"/>
+        <item x="55"/>
+        <item x="15"/>
+        <item x="214"/>
+        <item x="21"/>
+        <item x="197"/>
+        <item x="54"/>
+        <item x="144"/>
+        <item x="242"/>
+        <item x="156"/>
+        <item x="106"/>
+        <item x="128"/>
+        <item x="32"/>
+        <item x="63"/>
+        <item x="46"/>
+        <item x="145"/>
+        <item x="5"/>
+        <item x="219"/>
+        <item x="116"/>
+        <item x="203"/>
+        <item x="248"/>
+        <item x="41"/>
+        <item x="161"/>
+        <item x="78"/>
+        <item x="223"/>
+        <item x="174"/>
+        <item x="123"/>
+        <item x="218"/>
+        <item x="182"/>
+        <item x="0"/>
+        <item x="13"/>
+        <item x="39"/>
+        <item x="177"/>
+        <item x="194"/>
+        <item x="231"/>
+        <item x="245"/>
+        <item x="75"/>
+        <item x="228"/>
+        <item x="37"/>
+        <item x="122"/>
+        <item x="201"/>
+        <item x="154"/>
+        <item x="99"/>
+        <item x="200"/>
+        <item x="47"/>
+        <item x="113"/>
+        <item x="172"/>
+        <item x="96"/>
+        <item x="249"/>
+        <item x="121"/>
+        <item x="70"/>
+        <item x="107"/>
+        <item x="117"/>
+        <item x="67"/>
+        <item x="205"/>
+        <item x="141"/>
+        <item x="120"/>
+        <item x="95"/>
+        <item x="50"/>
+        <item x="243"/>
+        <item x="91"/>
+        <item x="147"/>
+        <item x="131"/>
+        <item x="82"/>
+        <item x="61"/>
+        <item x="18"/>
+        <item x="133"/>
+        <item x="56"/>
+        <item x="108"/>
+        <item x="149"/>
+        <item x="227"/>
+        <item x="244"/>
+        <item x="186"/>
+        <item x="239"/>
+        <item x="199"/>
+        <item x="180"/>
+        <item x="109"/>
+        <item x="90"/>
+        <item x="64"/>
+        <item x="53"/>
+        <item x="71"/>
+        <item x="33"/>
+        <item x="206"/>
+        <item x="202"/>
+        <item x="84"/>
+        <item x="98"/>
+        <item x="77"/>
+        <item x="188"/>
+        <item x="221"/>
+        <item x="183"/>
+        <item x="204"/>
+        <item x="160"/>
+        <item x="190"/>
+        <item x="126"/>
+        <item x="44"/>
+        <item x="102"/>
+        <item x="192"/>
+        <item x="2"/>
+        <item x="229"/>
+        <item x="165"/>
+        <item x="111"/>
+        <item x="179"/>
+        <item x="155"/>
+        <item x="3"/>
+        <item x="17"/>
+        <item x="26"/>
+        <item x="112"/>
+        <item x="20"/>
+        <item x="152"/>
+        <item x="81"/>
+        <item x="226"/>
+        <item x="230"/>
+        <item x="29"/>
+        <item x="175"/>
+        <item x="162"/>
+        <item x="93"/>
+        <item x="10"/>
+        <item x="184"/>
+        <item x="176"/>
+        <item x="60"/>
+        <item x="215"/>
+        <item x="142"/>
+        <item x="48"/>
+        <item x="83"/>
+        <item x="100"/>
+        <item x="217"/>
+        <item x="195"/>
+        <item x="69"/>
+        <item x="138"/>
+        <item x="1"/>
+        <item x="181"/>
+        <item x="28"/>
+        <item x="73"/>
+        <item x="4"/>
+        <item x="213"/>
+        <item x="185"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item sd="0" x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item sd="0" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="11"/>
+    <field x="10"/>
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="4" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Total Price" fld="9" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6223BFF3-72F3-498B-873F-ADFE229340AC}" name="TablaDinámica4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="12">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" numFmtId="14" subtotalTop="0" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0">
+      <items count="53">
+        <item x="38"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="30"/>
+        <item x="26"/>
+        <item x="51"/>
+        <item x="41"/>
+        <item x="18"/>
+        <item x="44"/>
+        <item x="34"/>
+        <item x="49"/>
+        <item x="43"/>
+        <item x="36"/>
+        <item x="10"/>
+        <item x="39"/>
+        <item x="35"/>
+        <item x="29"/>
+        <item x="0"/>
+        <item x="45"/>
+        <item x="40"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="31"/>
+        <item x="37"/>
+        <item x="48"/>
+        <item x="46"/>
+        <item x="33"/>
+        <item x="8"/>
+        <item x="12"/>
+        <item x="47"/>
+        <item x="50"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="9"/>
+        <item x="22"/>
+        <item x="25"/>
+        <item x="7"/>
+        <item x="19"/>
+        <item x="14"/>
+        <item x="5"/>
+        <item x="21"/>
+        <item x="23"/>
+        <item x="28"/>
+        <item x="24"/>
+        <item x="32"/>
+        <item x="4"/>
+        <item x="42"/>
+        <item x="20"/>
+        <item x="27"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0">
+      <items count="251">
+        <item x="8"/>
+        <item x="166"/>
+        <item x="178"/>
+        <item x="30"/>
+        <item x="169"/>
+        <item x="14"/>
+        <item x="198"/>
+        <item x="87"/>
+        <item x="74"/>
+        <item x="207"/>
+        <item x="11"/>
+        <item x="49"/>
+        <item x="31"/>
+        <item x="57"/>
+        <item x="42"/>
+        <item x="80"/>
+        <item x="216"/>
+        <item x="110"/>
+        <item x="247"/>
+        <item x="234"/>
+        <item x="236"/>
+        <item x="150"/>
+        <item x="23"/>
+        <item x="92"/>
+        <item x="158"/>
+        <item x="59"/>
+        <item x="62"/>
+        <item x="119"/>
+        <item x="140"/>
+        <item x="168"/>
+        <item x="151"/>
+        <item x="36"/>
+        <item x="246"/>
+        <item x="85"/>
+        <item x="76"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="27"/>
+        <item x="103"/>
+        <item x="224"/>
+        <item x="211"/>
+        <item x="66"/>
+        <item x="129"/>
+        <item x="189"/>
+        <item x="114"/>
+        <item x="130"/>
+        <item x="196"/>
+        <item x="164"/>
+        <item x="134"/>
+        <item x="68"/>
+        <item x="89"/>
+        <item x="16"/>
+        <item x="148"/>
+        <item x="220"/>
+        <item x="233"/>
+        <item x="193"/>
+        <item x="45"/>
+        <item x="52"/>
+        <item x="212"/>
+        <item x="222"/>
+        <item x="208"/>
+        <item x="163"/>
+        <item x="157"/>
+        <item x="127"/>
+        <item x="24"/>
+        <item x="19"/>
+        <item x="171"/>
+        <item x="94"/>
+        <item x="132"/>
+        <item x="9"/>
+        <item x="124"/>
+        <item x="35"/>
+        <item x="153"/>
+        <item x="238"/>
+        <item x="225"/>
+        <item x="118"/>
+        <item x="34"/>
+        <item x="105"/>
+        <item x="241"/>
+        <item x="209"/>
+        <item x="25"/>
+        <item x="43"/>
+        <item x="125"/>
+        <item x="137"/>
+        <item x="86"/>
+        <item x="240"/>
+        <item x="191"/>
+        <item x="51"/>
+        <item x="237"/>
+        <item x="101"/>
+        <item x="139"/>
+        <item x="115"/>
+        <item x="88"/>
+        <item x="40"/>
+        <item x="187"/>
+        <item x="136"/>
+        <item x="58"/>
+        <item x="65"/>
+        <item x="38"/>
+        <item x="12"/>
+        <item x="135"/>
+        <item x="210"/>
+        <item x="72"/>
+        <item x="146"/>
+        <item x="143"/>
+        <item x="159"/>
+        <item x="232"/>
+        <item x="173"/>
+        <item x="97"/>
+        <item x="104"/>
+        <item x="79"/>
+        <item x="167"/>
+        <item x="235"/>
+        <item x="170"/>
+        <item x="22"/>
+        <item x="55"/>
+        <item x="15"/>
+        <item x="214"/>
+        <item x="21"/>
+        <item x="197"/>
+        <item x="54"/>
+        <item x="144"/>
+        <item x="242"/>
+        <item x="156"/>
+        <item x="106"/>
+        <item x="128"/>
+        <item x="32"/>
+        <item x="63"/>
+        <item x="46"/>
+        <item x="145"/>
+        <item x="5"/>
+        <item x="219"/>
+        <item x="116"/>
+        <item x="203"/>
+        <item x="248"/>
+        <item x="41"/>
+        <item x="161"/>
+        <item x="78"/>
+        <item x="223"/>
+        <item x="174"/>
+        <item x="123"/>
+        <item x="218"/>
+        <item x="182"/>
+        <item x="0"/>
+        <item x="13"/>
+        <item x="39"/>
+        <item x="177"/>
+        <item x="194"/>
+        <item x="231"/>
+        <item x="245"/>
+        <item x="75"/>
+        <item x="228"/>
+        <item x="37"/>
+        <item x="122"/>
+        <item x="201"/>
+        <item x="154"/>
+        <item x="99"/>
+        <item x="200"/>
+        <item x="47"/>
+        <item x="113"/>
+        <item x="172"/>
+        <item x="96"/>
+        <item x="249"/>
+        <item x="121"/>
+        <item x="70"/>
+        <item x="107"/>
+        <item x="117"/>
+        <item x="67"/>
+        <item x="205"/>
+        <item x="141"/>
+        <item x="120"/>
+        <item x="95"/>
+        <item x="50"/>
+        <item x="243"/>
+        <item x="91"/>
+        <item x="147"/>
+        <item x="131"/>
+        <item x="82"/>
+        <item x="61"/>
+        <item x="18"/>
+        <item x="133"/>
+        <item x="56"/>
+        <item x="108"/>
+        <item x="149"/>
+        <item x="227"/>
+        <item x="244"/>
+        <item x="186"/>
+        <item x="239"/>
+        <item x="199"/>
+        <item x="180"/>
+        <item x="109"/>
+        <item x="90"/>
+        <item x="64"/>
+        <item x="53"/>
+        <item x="71"/>
+        <item x="33"/>
+        <item x="206"/>
+        <item x="202"/>
+        <item x="84"/>
+        <item x="98"/>
+        <item x="77"/>
+        <item x="188"/>
+        <item x="221"/>
+        <item x="183"/>
+        <item x="204"/>
+        <item x="160"/>
+        <item x="190"/>
+        <item x="126"/>
+        <item x="44"/>
+        <item x="102"/>
+        <item x="192"/>
+        <item x="2"/>
+        <item x="229"/>
+        <item x="165"/>
+        <item x="111"/>
+        <item x="179"/>
+        <item x="155"/>
+        <item x="3"/>
+        <item x="17"/>
+        <item x="26"/>
+        <item x="112"/>
+        <item x="20"/>
+        <item x="152"/>
+        <item x="81"/>
+        <item x="226"/>
+        <item x="230"/>
+        <item x="29"/>
+        <item x="175"/>
+        <item x="162"/>
+        <item x="93"/>
+        <item x="10"/>
+        <item x="184"/>
+        <item x="176"/>
+        <item x="60"/>
+        <item x="215"/>
+        <item x="142"/>
+        <item x="48"/>
+        <item x="83"/>
+        <item x="100"/>
+        <item x="217"/>
+        <item x="195"/>
+        <item x="69"/>
+        <item x="138"/>
+        <item x="1"/>
+        <item x="181"/>
+        <item x="28"/>
+        <item x="73"/>
+        <item x="4"/>
+        <item x="213"/>
+        <item x="185"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item sd="0" x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item sd="0" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="11"/>
+    <field x="10"/>
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="4" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Total Price" fld="9" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6223BFF3-72F3-498B-873F-ADFE229340AC}" name="TablaDinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="12">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" numFmtId="14" subtotalTop="0" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0">
+      <items count="53">
+        <item x="38"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="30"/>
+        <item x="26"/>
+        <item x="51"/>
+        <item x="41"/>
+        <item x="18"/>
+        <item x="44"/>
+        <item x="34"/>
+        <item x="49"/>
+        <item x="43"/>
+        <item x="36"/>
+        <item x="10"/>
+        <item x="39"/>
+        <item x="35"/>
+        <item x="29"/>
+        <item x="0"/>
+        <item x="45"/>
+        <item x="40"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="31"/>
+        <item x="37"/>
+        <item x="48"/>
+        <item x="46"/>
+        <item x="33"/>
+        <item x="8"/>
+        <item x="12"/>
+        <item x="47"/>
+        <item x="50"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="9"/>
+        <item x="22"/>
+        <item x="25"/>
+        <item x="7"/>
+        <item x="19"/>
+        <item x="14"/>
+        <item x="5"/>
+        <item x="21"/>
+        <item x="23"/>
+        <item x="28"/>
+        <item x="24"/>
+        <item x="32"/>
+        <item x="4"/>
+        <item x="42"/>
+        <item x="20"/>
+        <item x="27"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0">
+      <items count="251">
+        <item x="8"/>
+        <item x="166"/>
+        <item x="178"/>
+        <item x="30"/>
+        <item x="169"/>
+        <item x="14"/>
+        <item x="198"/>
+        <item x="87"/>
+        <item x="74"/>
+        <item x="207"/>
+        <item x="11"/>
+        <item x="49"/>
+        <item x="31"/>
+        <item x="57"/>
+        <item x="42"/>
+        <item x="80"/>
+        <item x="216"/>
+        <item x="110"/>
+        <item x="247"/>
+        <item x="234"/>
+        <item x="236"/>
+        <item x="150"/>
+        <item x="23"/>
+        <item x="92"/>
+        <item x="158"/>
+        <item x="59"/>
+        <item x="62"/>
+        <item x="119"/>
+        <item x="140"/>
+        <item x="168"/>
+        <item x="151"/>
+        <item x="36"/>
+        <item x="246"/>
+        <item x="85"/>
+        <item x="76"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="27"/>
+        <item x="103"/>
+        <item x="224"/>
+        <item x="211"/>
+        <item x="66"/>
+        <item x="129"/>
+        <item x="189"/>
+        <item x="114"/>
+        <item x="130"/>
+        <item x="196"/>
+        <item x="164"/>
+        <item x="134"/>
+        <item x="68"/>
+        <item x="89"/>
+        <item x="16"/>
+        <item x="148"/>
+        <item x="220"/>
+        <item x="233"/>
+        <item x="193"/>
+        <item x="45"/>
+        <item x="52"/>
+        <item x="212"/>
+        <item x="222"/>
+        <item x="208"/>
+        <item x="163"/>
+        <item x="157"/>
+        <item x="127"/>
+        <item x="24"/>
+        <item x="19"/>
+        <item x="171"/>
+        <item x="94"/>
+        <item x="132"/>
+        <item x="9"/>
+        <item x="124"/>
+        <item x="35"/>
+        <item x="153"/>
+        <item x="238"/>
+        <item x="225"/>
+        <item x="118"/>
+        <item x="34"/>
+        <item x="105"/>
+        <item x="241"/>
+        <item x="209"/>
+        <item x="25"/>
+        <item x="43"/>
+        <item x="125"/>
+        <item x="137"/>
+        <item x="86"/>
+        <item x="240"/>
+        <item x="191"/>
+        <item x="51"/>
+        <item x="237"/>
+        <item x="101"/>
+        <item x="139"/>
+        <item x="115"/>
+        <item x="88"/>
+        <item x="40"/>
+        <item x="187"/>
+        <item x="136"/>
+        <item x="58"/>
+        <item x="65"/>
+        <item x="38"/>
+        <item x="12"/>
+        <item x="135"/>
+        <item x="210"/>
+        <item x="72"/>
+        <item x="146"/>
+        <item x="143"/>
+        <item x="159"/>
+        <item x="232"/>
+        <item x="173"/>
+        <item x="97"/>
+        <item x="104"/>
+        <item x="79"/>
+        <item x="167"/>
+        <item x="235"/>
+        <item x="170"/>
+        <item x="22"/>
+        <item x="55"/>
+        <item x="15"/>
+        <item x="214"/>
+        <item x="21"/>
+        <item x="197"/>
+        <item x="54"/>
+        <item x="144"/>
+        <item x="242"/>
+        <item x="156"/>
+        <item x="106"/>
+        <item x="128"/>
+        <item x="32"/>
+        <item x="63"/>
+        <item x="46"/>
+        <item x="145"/>
+        <item x="5"/>
+        <item x="219"/>
+        <item x="116"/>
+        <item x="203"/>
+        <item x="248"/>
+        <item x="41"/>
+        <item x="161"/>
+        <item x="78"/>
+        <item x="223"/>
+        <item x="174"/>
+        <item x="123"/>
+        <item x="218"/>
+        <item x="182"/>
+        <item x="0"/>
+        <item x="13"/>
+        <item x="39"/>
+        <item x="177"/>
+        <item x="194"/>
+        <item x="231"/>
+        <item x="245"/>
+        <item x="75"/>
+        <item x="228"/>
+        <item x="37"/>
+        <item x="122"/>
+        <item x="201"/>
+        <item x="154"/>
+        <item x="99"/>
+        <item x="200"/>
+        <item x="47"/>
+        <item x="113"/>
+        <item x="172"/>
+        <item x="96"/>
+        <item x="249"/>
+        <item x="121"/>
+        <item x="70"/>
+        <item x="107"/>
+        <item x="117"/>
+        <item x="67"/>
+        <item x="205"/>
+        <item x="141"/>
+        <item x="120"/>
+        <item x="95"/>
+        <item x="50"/>
+        <item x="243"/>
+        <item x="91"/>
+        <item x="147"/>
+        <item x="131"/>
+        <item x="82"/>
+        <item x="61"/>
+        <item x="18"/>
+        <item x="133"/>
+        <item x="56"/>
+        <item x="108"/>
+        <item x="149"/>
+        <item x="227"/>
+        <item x="244"/>
+        <item x="186"/>
+        <item x="239"/>
+        <item x="199"/>
+        <item x="180"/>
+        <item x="109"/>
+        <item x="90"/>
+        <item x="64"/>
+        <item x="53"/>
+        <item x="71"/>
+        <item x="33"/>
+        <item x="206"/>
+        <item x="202"/>
+        <item x="84"/>
+        <item x="98"/>
+        <item x="77"/>
+        <item x="188"/>
+        <item x="221"/>
+        <item x="183"/>
+        <item x="204"/>
+        <item x="160"/>
+        <item x="190"/>
+        <item x="126"/>
+        <item x="44"/>
+        <item x="102"/>
+        <item x="192"/>
+        <item x="2"/>
+        <item x="229"/>
+        <item x="165"/>
+        <item x="111"/>
+        <item x="179"/>
+        <item x="155"/>
+        <item x="3"/>
+        <item x="17"/>
+        <item x="26"/>
+        <item x="112"/>
+        <item x="20"/>
+        <item x="152"/>
+        <item x="81"/>
+        <item x="226"/>
+        <item x="230"/>
+        <item x="29"/>
+        <item x="175"/>
+        <item x="162"/>
+        <item x="93"/>
+        <item x="10"/>
+        <item x="184"/>
+        <item x="176"/>
+        <item x="60"/>
+        <item x="215"/>
+        <item x="142"/>
+        <item x="48"/>
+        <item x="83"/>
+        <item x="100"/>
+        <item x="217"/>
+        <item x="195"/>
+        <item x="69"/>
+        <item x="138"/>
+        <item x="1"/>
+        <item x="181"/>
+        <item x="28"/>
+        <item x="73"/>
+        <item x="4"/>
+        <item x="213"/>
+        <item x="185"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item sd="0" x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item sd="0" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="11"/>
+    <field x="10"/>
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="4" item="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Total Price" fld="9" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6223BFF3-72F3-498B-873F-ADFE229340AC}" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="12">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" numFmtId="14" subtotalTop="0" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0">
+      <items count="53">
+        <item x="38"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="30"/>
+        <item x="26"/>
+        <item x="51"/>
+        <item x="41"/>
+        <item x="18"/>
+        <item x="44"/>
+        <item x="34"/>
+        <item x="49"/>
+        <item x="43"/>
+        <item x="36"/>
+        <item x="10"/>
+        <item x="39"/>
+        <item x="35"/>
+        <item x="29"/>
+        <item x="0"/>
+        <item x="45"/>
+        <item x="40"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="31"/>
+        <item x="37"/>
+        <item x="48"/>
+        <item x="46"/>
+        <item x="33"/>
+        <item x="8"/>
+        <item x="12"/>
+        <item x="47"/>
+        <item x="50"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="9"/>
+        <item x="22"/>
+        <item x="25"/>
+        <item x="7"/>
+        <item x="19"/>
+        <item x="14"/>
+        <item x="5"/>
+        <item x="21"/>
+        <item x="23"/>
+        <item x="28"/>
+        <item x="24"/>
+        <item x="32"/>
+        <item x="4"/>
+        <item x="42"/>
+        <item x="20"/>
+        <item x="27"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0">
+      <items count="251">
+        <item x="8"/>
+        <item x="166"/>
+        <item x="178"/>
+        <item x="30"/>
+        <item x="169"/>
+        <item x="14"/>
+        <item x="198"/>
+        <item x="87"/>
+        <item x="74"/>
+        <item x="207"/>
+        <item x="11"/>
+        <item x="49"/>
+        <item x="31"/>
+        <item x="57"/>
+        <item x="42"/>
+        <item x="80"/>
+        <item x="216"/>
+        <item x="110"/>
+        <item x="247"/>
+        <item x="234"/>
+        <item x="236"/>
+        <item x="150"/>
+        <item x="23"/>
+        <item x="92"/>
+        <item x="158"/>
+        <item x="59"/>
+        <item x="62"/>
+        <item x="119"/>
+        <item x="140"/>
+        <item x="168"/>
+        <item x="151"/>
+        <item x="36"/>
+        <item x="246"/>
+        <item x="85"/>
+        <item x="76"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="27"/>
+        <item x="103"/>
+        <item x="224"/>
+        <item x="211"/>
+        <item x="66"/>
+        <item x="129"/>
+        <item x="189"/>
+        <item x="114"/>
+        <item x="130"/>
+        <item x="196"/>
+        <item x="164"/>
+        <item x="134"/>
+        <item x="68"/>
+        <item x="89"/>
+        <item x="16"/>
+        <item x="148"/>
+        <item x="220"/>
+        <item x="233"/>
+        <item x="193"/>
+        <item x="45"/>
+        <item x="52"/>
+        <item x="212"/>
+        <item x="222"/>
+        <item x="208"/>
+        <item x="163"/>
+        <item x="157"/>
+        <item x="127"/>
+        <item x="24"/>
+        <item x="19"/>
+        <item x="171"/>
+        <item x="94"/>
+        <item x="132"/>
+        <item x="9"/>
+        <item x="124"/>
+        <item x="35"/>
+        <item x="153"/>
+        <item x="238"/>
+        <item x="225"/>
+        <item x="118"/>
+        <item x="34"/>
+        <item x="105"/>
+        <item x="241"/>
+        <item x="209"/>
+        <item x="25"/>
+        <item x="43"/>
+        <item x="125"/>
+        <item x="137"/>
+        <item x="86"/>
+        <item x="240"/>
+        <item x="191"/>
+        <item x="51"/>
+        <item x="237"/>
+        <item x="101"/>
+        <item x="139"/>
+        <item x="115"/>
+        <item x="88"/>
+        <item x="40"/>
+        <item x="187"/>
+        <item x="136"/>
+        <item x="58"/>
+        <item x="65"/>
+        <item x="38"/>
+        <item x="12"/>
+        <item x="135"/>
+        <item x="210"/>
+        <item x="72"/>
+        <item x="146"/>
+        <item x="143"/>
+        <item x="159"/>
+        <item x="232"/>
+        <item x="173"/>
+        <item x="97"/>
+        <item x="104"/>
+        <item x="79"/>
+        <item x="167"/>
+        <item x="235"/>
+        <item x="170"/>
+        <item x="22"/>
+        <item x="55"/>
+        <item x="15"/>
+        <item x="214"/>
+        <item x="21"/>
+        <item x="197"/>
+        <item x="54"/>
+        <item x="144"/>
+        <item x="242"/>
+        <item x="156"/>
+        <item x="106"/>
+        <item x="128"/>
+        <item x="32"/>
+        <item x="63"/>
+        <item x="46"/>
+        <item x="145"/>
+        <item x="5"/>
+        <item x="219"/>
+        <item x="116"/>
+        <item x="203"/>
+        <item x="248"/>
+        <item x="41"/>
+        <item x="161"/>
+        <item x="78"/>
+        <item x="223"/>
+        <item x="174"/>
+        <item x="123"/>
+        <item x="218"/>
+        <item x="182"/>
+        <item x="0"/>
+        <item x="13"/>
+        <item x="39"/>
+        <item x="177"/>
+        <item x="194"/>
+        <item x="231"/>
+        <item x="245"/>
+        <item x="75"/>
+        <item x="228"/>
+        <item x="37"/>
+        <item x="122"/>
+        <item x="201"/>
+        <item x="154"/>
+        <item x="99"/>
+        <item x="200"/>
+        <item x="47"/>
+        <item x="113"/>
+        <item x="172"/>
+        <item x="96"/>
+        <item x="249"/>
+        <item x="121"/>
+        <item x="70"/>
+        <item x="107"/>
+        <item x="117"/>
+        <item x="67"/>
+        <item x="205"/>
+        <item x="141"/>
+        <item x="120"/>
+        <item x="95"/>
+        <item x="50"/>
+        <item x="243"/>
+        <item x="91"/>
+        <item x="147"/>
+        <item x="131"/>
+        <item x="82"/>
+        <item x="61"/>
+        <item x="18"/>
+        <item x="133"/>
+        <item x="56"/>
+        <item x="108"/>
+        <item x="149"/>
+        <item x="227"/>
+        <item x="244"/>
+        <item x="186"/>
+        <item x="239"/>
+        <item x="199"/>
+        <item x="180"/>
+        <item x="109"/>
+        <item x="90"/>
+        <item x="64"/>
+        <item x="53"/>
+        <item x="71"/>
+        <item x="33"/>
+        <item x="206"/>
+        <item x="202"/>
+        <item x="84"/>
+        <item x="98"/>
+        <item x="77"/>
+        <item x="188"/>
+        <item x="221"/>
+        <item x="183"/>
+        <item x="204"/>
+        <item x="160"/>
+        <item x="190"/>
+        <item x="126"/>
+        <item x="44"/>
+        <item x="102"/>
+        <item x="192"/>
+        <item x="2"/>
+        <item x="229"/>
+        <item x="165"/>
+        <item x="111"/>
+        <item x="179"/>
+        <item x="155"/>
+        <item x="3"/>
+        <item x="17"/>
+        <item x="26"/>
+        <item x="112"/>
+        <item x="20"/>
+        <item x="152"/>
+        <item x="81"/>
+        <item x="226"/>
+        <item x="230"/>
+        <item x="29"/>
+        <item x="175"/>
+        <item x="162"/>
+        <item x="93"/>
+        <item x="10"/>
+        <item x="184"/>
+        <item x="176"/>
+        <item x="60"/>
+        <item x="215"/>
+        <item x="142"/>
+        <item x="48"/>
+        <item x="83"/>
+        <item x="100"/>
+        <item x="217"/>
+        <item x="195"/>
+        <item x="69"/>
+        <item x="138"/>
+        <item x="1"/>
+        <item x="181"/>
+        <item x="28"/>
+        <item x="73"/>
+        <item x="4"/>
+        <item x="213"/>
+        <item x="185"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item sd="0" x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item sd="0" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="11"/>
+    <field x="10"/>
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="4" item="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Total Price" fld="9" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6223BFF3-72F3-498B-873F-ADFE229340AC}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="12">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" numFmtId="14" subtotalTop="0" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0">
+      <items count="53">
+        <item x="38"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="30"/>
+        <item x="26"/>
+        <item x="51"/>
+        <item x="41"/>
+        <item x="18"/>
+        <item x="44"/>
+        <item x="34"/>
+        <item x="49"/>
+        <item x="43"/>
+        <item x="36"/>
+        <item x="10"/>
+        <item x="39"/>
+        <item x="35"/>
+        <item x="29"/>
+        <item x="0"/>
+        <item x="45"/>
+        <item x="40"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="31"/>
+        <item x="37"/>
+        <item x="48"/>
+        <item x="46"/>
+        <item x="33"/>
+        <item x="8"/>
+        <item x="12"/>
+        <item x="47"/>
+        <item x="50"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="9"/>
+        <item x="22"/>
+        <item x="25"/>
+        <item x="7"/>
+        <item x="19"/>
+        <item x="14"/>
+        <item x="5"/>
+        <item x="21"/>
+        <item x="23"/>
+        <item x="28"/>
+        <item x="24"/>
+        <item x="32"/>
+        <item x="4"/>
+        <item x="42"/>
+        <item x="20"/>
+        <item x="27"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0">
+      <items count="251">
+        <item x="8"/>
+        <item x="166"/>
+        <item x="178"/>
+        <item x="30"/>
+        <item x="169"/>
+        <item x="14"/>
+        <item x="198"/>
+        <item x="87"/>
+        <item x="74"/>
+        <item x="207"/>
+        <item x="11"/>
+        <item x="49"/>
+        <item x="31"/>
+        <item x="57"/>
+        <item x="42"/>
+        <item x="80"/>
+        <item x="216"/>
+        <item x="110"/>
+        <item x="247"/>
+        <item x="234"/>
+        <item x="236"/>
+        <item x="150"/>
+        <item x="23"/>
+        <item x="92"/>
+        <item x="158"/>
+        <item x="59"/>
+        <item x="62"/>
+        <item x="119"/>
+        <item x="140"/>
+        <item x="168"/>
+        <item x="151"/>
+        <item x="36"/>
+        <item x="246"/>
+        <item x="85"/>
+        <item x="76"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="27"/>
+        <item x="103"/>
+        <item x="224"/>
+        <item x="211"/>
+        <item x="66"/>
+        <item x="129"/>
+        <item x="189"/>
+        <item x="114"/>
+        <item x="130"/>
+        <item x="196"/>
+        <item x="164"/>
+        <item x="134"/>
+        <item x="68"/>
+        <item x="89"/>
+        <item x="16"/>
+        <item x="148"/>
+        <item x="220"/>
+        <item x="233"/>
+        <item x="193"/>
+        <item x="45"/>
+        <item x="52"/>
+        <item x="212"/>
+        <item x="222"/>
+        <item x="208"/>
+        <item x="163"/>
+        <item x="157"/>
+        <item x="127"/>
+        <item x="24"/>
+        <item x="19"/>
+        <item x="171"/>
+        <item x="94"/>
+        <item x="132"/>
+        <item x="9"/>
+        <item x="124"/>
+        <item x="35"/>
+        <item x="153"/>
+        <item x="238"/>
+        <item x="225"/>
+        <item x="118"/>
+        <item x="34"/>
+        <item x="105"/>
+        <item x="241"/>
+        <item x="209"/>
+        <item x="25"/>
+        <item x="43"/>
+        <item x="125"/>
+        <item x="137"/>
+        <item x="86"/>
+        <item x="240"/>
+        <item x="191"/>
+        <item x="51"/>
+        <item x="237"/>
+        <item x="101"/>
+        <item x="139"/>
+        <item x="115"/>
+        <item x="88"/>
+        <item x="40"/>
+        <item x="187"/>
+        <item x="136"/>
+        <item x="58"/>
+        <item x="65"/>
+        <item x="38"/>
+        <item x="12"/>
+        <item x="135"/>
+        <item x="210"/>
+        <item x="72"/>
+        <item x="146"/>
+        <item x="143"/>
+        <item x="159"/>
+        <item x="232"/>
+        <item x="173"/>
+        <item x="97"/>
+        <item x="104"/>
+        <item x="79"/>
+        <item x="167"/>
+        <item x="235"/>
+        <item x="170"/>
+        <item x="22"/>
+        <item x="55"/>
+        <item x="15"/>
+        <item x="214"/>
+        <item x="21"/>
+        <item x="197"/>
+        <item x="54"/>
+        <item x="144"/>
+        <item x="242"/>
+        <item x="156"/>
+        <item x="106"/>
+        <item x="128"/>
+        <item x="32"/>
+        <item x="63"/>
+        <item x="46"/>
+        <item x="145"/>
+        <item x="5"/>
+        <item x="219"/>
+        <item x="116"/>
+        <item x="203"/>
+        <item x="248"/>
+        <item x="41"/>
+        <item x="161"/>
+        <item x="78"/>
+        <item x="223"/>
+        <item x="174"/>
+        <item x="123"/>
+        <item x="218"/>
+        <item x="182"/>
+        <item x="0"/>
+        <item x="13"/>
+        <item x="39"/>
+        <item x="177"/>
+        <item x="194"/>
+        <item x="231"/>
+        <item x="245"/>
+        <item x="75"/>
+        <item x="228"/>
+        <item x="37"/>
+        <item x="122"/>
+        <item x="201"/>
+        <item x="154"/>
+        <item x="99"/>
+        <item x="200"/>
+        <item x="47"/>
+        <item x="113"/>
+        <item x="172"/>
+        <item x="96"/>
+        <item x="249"/>
+        <item x="121"/>
+        <item x="70"/>
+        <item x="107"/>
+        <item x="117"/>
+        <item x="67"/>
+        <item x="205"/>
+        <item x="141"/>
+        <item x="120"/>
+        <item x="95"/>
+        <item x="50"/>
+        <item x="243"/>
+        <item x="91"/>
+        <item x="147"/>
+        <item x="131"/>
+        <item x="82"/>
+        <item x="61"/>
+        <item x="18"/>
+        <item x="133"/>
+        <item x="56"/>
+        <item x="108"/>
+        <item x="149"/>
+        <item x="227"/>
+        <item x="244"/>
+        <item x="186"/>
+        <item x="239"/>
+        <item x="199"/>
+        <item x="180"/>
+        <item x="109"/>
+        <item x="90"/>
+        <item x="64"/>
+        <item x="53"/>
+        <item x="71"/>
+        <item x="33"/>
+        <item x="206"/>
+        <item x="202"/>
+        <item x="84"/>
+        <item x="98"/>
+        <item x="77"/>
+        <item x="188"/>
+        <item x="221"/>
+        <item x="183"/>
+        <item x="204"/>
+        <item x="160"/>
+        <item x="190"/>
+        <item x="126"/>
+        <item x="44"/>
+        <item x="102"/>
+        <item x="192"/>
+        <item x="2"/>
+        <item x="229"/>
+        <item x="165"/>
+        <item x="111"/>
+        <item x="179"/>
+        <item x="155"/>
+        <item x="3"/>
+        <item x="17"/>
+        <item x="26"/>
+        <item x="112"/>
+        <item x="20"/>
+        <item x="152"/>
+        <item x="81"/>
+        <item x="226"/>
+        <item x="230"/>
+        <item x="29"/>
+        <item x="175"/>
+        <item x="162"/>
+        <item x="93"/>
+        <item x="10"/>
+        <item x="184"/>
+        <item x="176"/>
+        <item x="60"/>
+        <item x="215"/>
+        <item x="142"/>
+        <item x="48"/>
+        <item x="83"/>
+        <item x="100"/>
+        <item x="217"/>
+        <item x="195"/>
+        <item x="69"/>
+        <item x="138"/>
+        <item x="1"/>
+        <item x="181"/>
+        <item x="28"/>
+        <item x="73"/>
+        <item x="4"/>
+        <item x="213"/>
+        <item x="185"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item sd="0" x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item sd="0" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="11"/>
+    <field x="10"/>
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="4" item="5" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Total Price" fld="9" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6223BFF3-72F3-498B-873F-ADFE229340AC}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="12">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" numFmtId="14" subtotalTop="0" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0">
+      <items count="53">
+        <item x="38"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="30"/>
+        <item x="26"/>
+        <item x="51"/>
+        <item x="41"/>
+        <item x="18"/>
+        <item x="44"/>
+        <item x="34"/>
+        <item x="49"/>
+        <item x="43"/>
+        <item x="36"/>
+        <item x="10"/>
+        <item x="39"/>
+        <item x="35"/>
+        <item x="29"/>
+        <item x="0"/>
+        <item x="45"/>
+        <item x="40"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="31"/>
+        <item x="37"/>
+        <item x="48"/>
+        <item x="46"/>
+        <item x="33"/>
+        <item x="8"/>
+        <item x="12"/>
+        <item x="47"/>
+        <item x="50"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="9"/>
+        <item x="22"/>
+        <item x="25"/>
+        <item x="7"/>
+        <item x="19"/>
+        <item x="14"/>
+        <item x="5"/>
+        <item x="21"/>
+        <item x="23"/>
+        <item x="28"/>
+        <item x="24"/>
+        <item x="32"/>
+        <item x="4"/>
+        <item x="42"/>
+        <item x="20"/>
+        <item x="27"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0">
+      <items count="251">
+        <item x="8"/>
+        <item x="166"/>
+        <item x="178"/>
+        <item x="30"/>
+        <item x="169"/>
+        <item x="14"/>
+        <item x="198"/>
+        <item x="87"/>
+        <item x="74"/>
+        <item x="207"/>
+        <item x="11"/>
+        <item x="49"/>
+        <item x="31"/>
+        <item x="57"/>
+        <item x="42"/>
+        <item x="80"/>
+        <item x="216"/>
+        <item x="110"/>
+        <item x="247"/>
+        <item x="234"/>
+        <item x="236"/>
+        <item x="150"/>
+        <item x="23"/>
+        <item x="92"/>
+        <item x="158"/>
+        <item x="59"/>
+        <item x="62"/>
+        <item x="119"/>
+        <item x="140"/>
+        <item x="168"/>
+        <item x="151"/>
+        <item x="36"/>
+        <item x="246"/>
+        <item x="85"/>
+        <item x="76"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="27"/>
+        <item x="103"/>
+        <item x="224"/>
+        <item x="211"/>
+        <item x="66"/>
+        <item x="129"/>
+        <item x="189"/>
+        <item x="114"/>
+        <item x="130"/>
+        <item x="196"/>
+        <item x="164"/>
+        <item x="134"/>
+        <item x="68"/>
+        <item x="89"/>
+        <item x="16"/>
+        <item x="148"/>
+        <item x="220"/>
+        <item x="233"/>
+        <item x="193"/>
+        <item x="45"/>
+        <item x="52"/>
+        <item x="212"/>
+        <item x="222"/>
+        <item x="208"/>
+        <item x="163"/>
+        <item x="157"/>
+        <item x="127"/>
+        <item x="24"/>
+        <item x="19"/>
+        <item x="171"/>
+        <item x="94"/>
+        <item x="132"/>
+        <item x="9"/>
+        <item x="124"/>
+        <item x="35"/>
+        <item x="153"/>
+        <item x="238"/>
+        <item x="225"/>
+        <item x="118"/>
+        <item x="34"/>
+        <item x="105"/>
+        <item x="241"/>
+        <item x="209"/>
+        <item x="25"/>
+        <item x="43"/>
+        <item x="125"/>
+        <item x="137"/>
+        <item x="86"/>
+        <item x="240"/>
+        <item x="191"/>
+        <item x="51"/>
+        <item x="237"/>
+        <item x="101"/>
+        <item x="139"/>
+        <item x="115"/>
+        <item x="88"/>
+        <item x="40"/>
+        <item x="187"/>
+        <item x="136"/>
+        <item x="58"/>
+        <item x="65"/>
+        <item x="38"/>
+        <item x="12"/>
+        <item x="135"/>
+        <item x="210"/>
+        <item x="72"/>
+        <item x="146"/>
+        <item x="143"/>
+        <item x="159"/>
+        <item x="232"/>
+        <item x="173"/>
+        <item x="97"/>
+        <item x="104"/>
+        <item x="79"/>
+        <item x="167"/>
+        <item x="235"/>
+        <item x="170"/>
+        <item x="22"/>
+        <item x="55"/>
+        <item x="15"/>
+        <item x="214"/>
+        <item x="21"/>
+        <item x="197"/>
+        <item x="54"/>
+        <item x="144"/>
+        <item x="242"/>
+        <item x="156"/>
+        <item x="106"/>
+        <item x="128"/>
+        <item x="32"/>
+        <item x="63"/>
+        <item x="46"/>
+        <item x="145"/>
+        <item x="5"/>
+        <item x="219"/>
+        <item x="116"/>
+        <item x="203"/>
+        <item x="248"/>
+        <item x="41"/>
+        <item x="161"/>
+        <item x="78"/>
+        <item x="223"/>
+        <item x="174"/>
+        <item x="123"/>
+        <item x="218"/>
+        <item x="182"/>
+        <item x="0"/>
+        <item x="13"/>
+        <item x="39"/>
+        <item x="177"/>
+        <item x="194"/>
+        <item x="231"/>
+        <item x="245"/>
+        <item x="75"/>
+        <item x="228"/>
+        <item x="37"/>
+        <item x="122"/>
+        <item x="201"/>
+        <item x="154"/>
+        <item x="99"/>
+        <item x="200"/>
+        <item x="47"/>
+        <item x="113"/>
+        <item x="172"/>
+        <item x="96"/>
+        <item x="249"/>
+        <item x="121"/>
+        <item x="70"/>
+        <item x="107"/>
+        <item x="117"/>
+        <item x="67"/>
+        <item x="205"/>
+        <item x="141"/>
+        <item x="120"/>
+        <item x="95"/>
+        <item x="50"/>
+        <item x="243"/>
+        <item x="91"/>
+        <item x="147"/>
+        <item x="131"/>
+        <item x="82"/>
+        <item x="61"/>
+        <item x="18"/>
+        <item x="133"/>
+        <item x="56"/>
+        <item x="108"/>
+        <item x="149"/>
+        <item x="227"/>
+        <item x="244"/>
+        <item x="186"/>
+        <item x="239"/>
+        <item x="199"/>
+        <item x="180"/>
+        <item x="109"/>
+        <item x="90"/>
+        <item x="64"/>
+        <item x="53"/>
+        <item x="71"/>
+        <item x="33"/>
+        <item x="206"/>
+        <item x="202"/>
+        <item x="84"/>
+        <item x="98"/>
+        <item x="77"/>
+        <item x="188"/>
+        <item x="221"/>
+        <item x="183"/>
+        <item x="204"/>
+        <item x="160"/>
+        <item x="190"/>
+        <item x="126"/>
+        <item x="44"/>
+        <item x="102"/>
+        <item x="192"/>
+        <item x="2"/>
+        <item x="229"/>
+        <item x="165"/>
+        <item x="111"/>
+        <item x="179"/>
+        <item x="155"/>
+        <item x="3"/>
+        <item x="17"/>
+        <item x="26"/>
+        <item x="112"/>
+        <item x="20"/>
+        <item x="152"/>
+        <item x="81"/>
+        <item x="226"/>
+        <item x="230"/>
+        <item x="29"/>
+        <item x="175"/>
+        <item x="162"/>
+        <item x="93"/>
+        <item x="10"/>
+        <item x="184"/>
+        <item x="176"/>
+        <item x="60"/>
+        <item x="215"/>
+        <item x="142"/>
+        <item x="48"/>
+        <item x="83"/>
+        <item x="100"/>
+        <item x="217"/>
+        <item x="195"/>
+        <item x="69"/>
+        <item x="138"/>
+        <item x="1"/>
+        <item x="181"/>
+        <item x="28"/>
+        <item x="73"/>
+        <item x="4"/>
+        <item x="213"/>
+        <item x="185"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item sd="0" x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item sd="0" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="11"/>
+    <field x="10"/>
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Total Price" fld="9" baseField="0" baseItem="0"/>
   </dataFields>
@@ -5315,7 +7964,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5610,16 +8259,806 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40005913-5ACE-4026-8A7F-E93C74414FC5}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B5" s="2">
+        <v>160426.25000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" s="2">
+        <v>243369.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" s="2">
+        <v>213999.55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" s="2">
+        <v>734.65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9" s="2">
+        <v>618529.55000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B11" s="2">
+        <v>172311.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B12" s="2">
+        <v>191392.90000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B13" s="2">
+        <v>145913</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B14" s="2">
+        <v>90945.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" s="2">
+        <v>600563.20000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1219092.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBBA7D52-294E-4130-82FA-7866AD2FDF17}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B5" s="2">
+        <v>879440</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="2">
+        <v>499449</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B7" s="2">
+        <v>206735</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1585624</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B10" s="2">
+        <v>176024</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1116543</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B12" s="2">
+        <v>598435</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B13" s="2">
+        <v>110297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2001299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3586923</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EA6A1A-4218-4ECB-9D1F-CA2E2DBAEBF8}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B5" s="2">
+        <v>797.45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1362.29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" s="2">
+        <v>319.33000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1853.76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4332.83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3320.9700000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B12" s="2">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B13" s="2">
+        <v>770.31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B14" s="2">
+        <v>526.34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" s="2">
+        <v>4628.8700000000008</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B16" s="2">
+        <v>8961.7000000000007</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A1547E-30FE-4B45-9763-5B56D6F6D485}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1837.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1385.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" s="2">
+        <v>764.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1085.9000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5073.8899999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1805.23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1435.55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1756.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1037.5999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" s="2">
+        <v>6035.08</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B16" s="2">
+        <v>11108.97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA97A1F8-A232-4A34-9BC8-B1114CB6729D}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B5" s="2">
+        <v>8892.630000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" s="2">
+        <v>61130.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" s="2">
+        <v>59402.59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" s="2">
+        <v>21425.200000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9" s="2">
+        <v>150850.51999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B11" s="2">
+        <v>19289.150000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B12" s="2">
+        <v>61940.37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B13" s="2">
+        <v>32245.399999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B14" s="2">
+        <v>30780.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" s="2">
+        <v>144255.51999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B16" s="2">
+        <v>295106.03999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA34BB1-74E1-4FB5-9A3A-F7E2BBE8F027}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B5" s="2">
+        <v>38370</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" s="2">
+        <v>9933</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" s="2">
+        <v>29193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" s="2">
+        <v>71699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9" s="2">
+        <v>149195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B11" s="2">
+        <v>53092</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B12" s="2">
+        <v>33482</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B13" s="2">
+        <v>48654</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B14" s="2">
+        <v>22620</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" s="2">
+        <v>157848</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B16" s="2">
+        <v>307043</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2D221A-1F93-4E8D-B1BD-A9CD4616FBDE}">
-  <dimension ref="A3:B16"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -5685,23 +9124,31 @@
     <col min="230" max="230" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" t="s">
+        <v>258</v>
+      </c>
+    </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" t="s">
         <v>247</v>
-      </c>
-      <c r="B3" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B5" s="2">
         <v>1089764.3200000003</v>
@@ -5709,7 +9156,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B6" s="2">
         <v>317180.29000000004</v>
@@ -5717,7 +9164,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B7" s="2">
         <v>803127.67</v>
@@ -5725,7 +9172,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B8" s="2">
         <v>303533.51</v>
@@ -5733,7 +9180,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B9" s="2">
         <v>2513605.79</v>
@@ -5741,13 +9188,13 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B11" s="2">
         <v>425842.75</v>
@@ -5755,7 +9202,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B12" s="2">
         <v>1404805.07</v>
@@ -5763,7 +9210,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B13" s="2">
         <v>827774.40999999992</v>
@@ -5771,7 +9218,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B14" s="2">
         <v>256207.44000000003</v>
@@ -5779,7 +9226,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B15" s="2">
         <v>2914629.67</v>
@@ -5787,7 +9234,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="B16" s="2">
         <v>5428235.4600000009</v>
@@ -5798,7 +9245,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1772245-E949-49BD-9DDE-69AC1D118E83}">
   <dimension ref="A1:K275"/>
   <sheetViews>
@@ -5806,7 +9253,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
